--- a/assets/tabulados/R8_dia_horario.xlsx
+++ b/assets/tabulados/R8_dia_horario.xlsx
@@ -6,8 +6,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dia_horario" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dia_horario'!$A$1:$Q$11</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -453,8 +456,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot;%&quot;"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -462,16 +468,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -479,12 +501,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,594 +830,616 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="13.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="17.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="19.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="12.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="22.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/assets/tabulados/R8_dia_horario.xlsx
+++ b/assets/tabulados/R8_dia_horario.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t xml:space="preserve">dia_semana</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">AM</t>
   </si>
   <si>
-    <t xml:space="preserve">894</t>
+    <t xml:space="preserve">1.088</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -83,373 +83,364 @@
     <t xml:space="preserve">0,00</t>
   </si>
   <si>
-    <t xml:space="preserve">274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620</t>
+    <t xml:space="preserve">275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:07:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:07:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">991</t>
   </si>
   <si>
     <t xml:space="preserve">86</t>
   </si>
   <si>
-    <t xml:space="preserve">9,62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:00</t>
+    <t xml:space="preserve">8,68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miércoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viernes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:35</t>
   </si>
   <si>
     <t xml:space="preserve">00:00:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:07:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:07:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miércoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viernes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:26</t>
   </si>
 </sst>
 </file>
@@ -1131,37 +1122,37 @@
         <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>85</v>
@@ -1184,40 +1175,40 @@
         <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -1264,19 +1255,19 @@
         <v>107</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1287,60 +1278,60 @@
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
@@ -1349,34 +1340,34 @@
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1387,55 +1378,55 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="M11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
